--- a/MyST_LAB2_ARG.xlsx
+++ b/MyST_LAB2_ARG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ece0d5de62e46ee7/Documents/Semestre 9/Microestructuras y Sistemas de Trading/Laboratorios/Lab 3/MyST_LAB_3_E1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frida\Desktop\ITESO\9NO SEMESTRE\Microestructuras de Trading\MyST_LAB_3_E1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{8919228B-CA2F-AC4C-9849-362D72F65982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D02CE2-DE2F-42FE-A484-4B9C8C545A40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78783999-FAB9-4570-9A62-DC711F6A8185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4710" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico MT5" sheetId="4" r:id="rId1"/>
@@ -627,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="#\ ##0.00;\-#\ ##0.00;0.00;"/>
-    <numFmt numFmtId="167" formatCode="###0;\-###0;0;"/>
-    <numFmt numFmtId="168" formatCode="#\ ##0.00000;\-#\ ##0.00000;0.00000;"/>
-    <numFmt numFmtId="169" formatCode="#\ ##0.000;\-#\ ##0.000;0.000;"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0.00;\-#\ ##0.00;0.00;"/>
+    <numFmt numFmtId="165" formatCode="###0;\-###0;0;"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0.00000;\-#\ ##0.00000;0.00000;"/>
+    <numFmt numFmtId="167" formatCode="#\ ##0.000;\-#\ ##0.000;0.000;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -780,35 +780,41 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,17 +823,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1069,44 +1069,44 @@
     <col min="14" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="L2" s="8">
         <v>0</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="23">
         <v>-1516</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="L3" s="12">
         <v>0</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="24">
         <v>-97.01</v>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="23">
         <v>-581</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="24">
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="23">
         <v>16</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="L7" s="12">
         <v>0</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="24">
         <v>-1175</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="23">
         <v>62.79</v>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="24">
         <v>-84</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="23">
         <v>24</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="24">
         <v>88.29</v>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="23">
         <v>18</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       <c r="L13" s="12">
         <v>0</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="24">
         <v>39.78</v>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="L14" s="8">
         <v>0</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="23">
         <v>60.95</v>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       <c r="L15" s="12">
         <v>0</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="24">
         <v>-47.47</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       <c r="L16" s="8">
         <v>0</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="23">
         <v>30.89</v>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       <c r="L17" s="12">
         <v>97.02</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="24">
         <v>1159.6400000000001</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="L18" s="8">
         <v>0</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="23">
         <v>147</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       <c r="L19" s="12">
         <v>0</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="24">
         <v>153</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="23">
         <v>0.25</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       <c r="L21" s="12">
         <v>0</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="24">
         <v>-2.25</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="23">
         <v>-3.1</v>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       <c r="L23" s="12">
         <v>0</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="24">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       <c r="L24" s="8">
         <v>0</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="23">
         <v>-2.25</v>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       <c r="L25" s="12">
         <v>0</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="24">
         <v>1.06</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="L26" s="8">
         <v>0</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="23">
         <v>18.38</v>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       <c r="L27" s="12">
         <v>0</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="24">
         <v>0.03</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       <c r="L28" s="8">
         <v>0</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="23">
         <v>-0.76</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       <c r="L29" s="12">
         <v>0</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="24">
         <v>24</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="L30" s="8">
         <v>0</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="23">
         <v>0.1</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="L31" s="12">
         <v>0</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="24">
         <v>0.19</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="23">
         <v>30.3</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       <c r="L33" s="12">
         <v>0</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="24">
         <v>-40.33</v>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="L34" s="8">
         <v>0</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="23">
         <v>-67</v>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       <c r="L35" s="12">
         <v>0</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="24">
         <v>25</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="L36" s="8">
         <v>0</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="23">
         <v>75.23</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       <c r="L37" s="12">
         <v>0</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="24">
         <v>-104.65</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       <c r="L38" s="8">
         <v>0</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="23">
         <v>-0.63</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
       <c r="L39" s="12">
         <v>0</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="24">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="23">
         <v>-0.14000000000000001</v>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       <c r="L41" s="12">
         <v>0</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="24">
         <v>0.61</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       <c r="L42" s="8">
         <v>0</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M42" s="23">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="L43" s="12">
         <v>0</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="24">
         <v>-0.5</v>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       <c r="L44" s="8">
         <v>0</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M44" s="23">
         <v>-0.5</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       <c r="L45" s="12">
         <v>0</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="24">
         <v>0.25</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="L46" s="8">
         <v>0</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="23">
         <v>-2</v>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="L47" s="12">
         <v>0</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="24">
         <v>-0.54</v>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="L48" s="8">
         <v>0</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M48" s="23">
         <v>0.47</v>
       </c>
     </row>
@@ -3051,48 +3051,48 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -3105,142 +3105,142 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3270,48 +3270,48 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -3324,140 +3324,140 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3498,48 +3498,48 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
@@ -3552,140 +3552,140 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -3715,48 +3715,48 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
@@ -3769,140 +3769,140 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
     </row>
     <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -3932,48 +3932,48 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
@@ -3986,140 +3986,140 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
     </row>
     <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
     </row>
     <row r="111" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -4149,48 +4149,48 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
     </row>
     <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
@@ -4204,140 +4204,140 @@
       <c r="J124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
     </row>
     <row r="130" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
     </row>
     <row r="134" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -4367,48 +4367,48 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="19"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
     </row>
     <row r="147" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
@@ -4421,140 +4421,140 @@
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
     </row>
     <row r="153" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
     </row>
     <row r="157" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
@@ -4584,48 +4584,48 @@
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="20" t="s">
+      <c r="B166" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="19"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="19"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
     </row>
     <row r="170" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
@@ -4638,140 +4638,140 @@
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="19"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
     </row>
     <row r="176" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="19"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="19"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="19"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
     </row>
     <row r="180" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="19"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="19"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="19"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -4801,48 +4801,48 @@
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="20" t="s">
+      <c r="A189" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B189" s="20" t="s">
+      <c r="B189" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="19"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="19"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="19"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
@@ -4855,141 +4855,141 @@
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="19"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="19"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
       <c r="J196" s="6"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
     </row>
     <row r="199" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="19"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="19"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
+      <c r="A201" s="21"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="19"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19"/>
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
     </row>
     <row r="203" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="19"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19"/>
+      <c r="A205" s="21"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
@@ -5019,48 +5019,48 @@
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="20" t="s">
+      <c r="A212" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="20" t="s">
+      <c r="B212" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="19"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19"/>
+      <c r="A213" s="21"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="19"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19"/>
+      <c r="A214" s="21"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="19"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="19"/>
-      <c r="H215" s="19"/>
+      <c r="A215" s="21"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
     </row>
     <row r="216" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
@@ -5073,140 +5073,140 @@
       <c r="H216" s="1"/>
     </row>
     <row r="217" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19"/>
-      <c r="H217" s="19"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="19"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="19"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="19"/>
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="19"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="19"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
     </row>
     <row r="222" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="18" t="s">
+      <c r="A222" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="B222" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="19"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
+      <c r="A223" s="21"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="19"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
+      <c r="A225" s="21"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
     </row>
     <row r="226" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="18" t="s">
+      <c r="A227" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="19"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
+      <c r="A228" s="21"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="19"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="19"/>
+      <c r="A229" s="21"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="19"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="19"/>
+      <c r="A230" s="21"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
@@ -5236,48 +5236,48 @@
       <c r="H234" s="1"/>
     </row>
     <row r="235" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="20" t="s">
+      <c r="A235" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B235" s="20" t="s">
+      <c r="B235" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="19"/>
-      <c r="H235" s="19"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="19"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
+      <c r="A236" s="21"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="19"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
+      <c r="A237" s="21"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
+      <c r="A238" s="21"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
@@ -5290,140 +5290,140 @@
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="18" t="s">
+      <c r="A240" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B240" s="18" t="s">
+      <c r="B240" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="19"/>
-      <c r="G240" s="19"/>
-      <c r="H240" s="19"/>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="19"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
+      <c r="A241" s="21"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21"/>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="19"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="19"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
+      <c r="A242" s="21"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21"/>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="19"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="19"/>
-      <c r="H243" s="19"/>
+      <c r="A243" s="21"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
     </row>
     <row r="245" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="18" t="s">
+      <c r="A245" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B245" s="18" t="s">
+      <c r="B245" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="19"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
+      <c r="A246" s="21"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="19"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="19"/>
-      <c r="G247" s="19"/>
-      <c r="H247" s="19"/>
+      <c r="A247" s="21"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="19"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="19"/>
-      <c r="G248" s="19"/>
-      <c r="H248" s="19"/>
+      <c r="A248" s="21"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
     </row>
     <row r="249" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="18" t="s">
+      <c r="A250" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B250" s="18" t="s">
+      <c r="B250" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="19"/>
-      <c r="G250" s="19"/>
-      <c r="H250" s="19"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="19"/>
-      <c r="G251" s="19"/>
-      <c r="H251" s="19"/>
+      <c r="A251" s="21"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="19"/>
-      <c r="H252" s="19"/>
+      <c r="A252" s="21"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="19"/>
-      <c r="H253" s="19"/>
+      <c r="A253" s="21"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
@@ -5453,48 +5453,48 @@
       <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="20" t="s">
+      <c r="A258" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B258" s="20" t="s">
+      <c r="B258" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C258" s="19"/>
-      <c r="D258" s="19"/>
-      <c r="E258" s="19"/>
-      <c r="F258" s="19"/>
-      <c r="G258" s="19"/>
-      <c r="H258" s="19"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
     </row>
     <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="19"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="19"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="19"/>
-      <c r="G259" s="19"/>
-      <c r="H259" s="19"/>
+      <c r="A259" s="21"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
     </row>
     <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="19"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="19"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="19"/>
-      <c r="G260" s="19"/>
-      <c r="H260" s="19"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
     </row>
     <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="19"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="19"/>
-      <c r="G261" s="19"/>
-      <c r="H261" s="19"/>
+      <c r="A261" s="21"/>
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
     </row>
     <row r="262" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
@@ -5507,140 +5507,140 @@
       <c r="H262" s="1"/>
     </row>
     <row r="263" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A263" s="18" t="s">
+      <c r="A263" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="19"/>
-      <c r="G263" s="19"/>
-      <c r="H263" s="19"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
     </row>
     <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="19"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="19"/>
+      <c r="A264" s="21"/>
+      <c r="B264" s="21"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
     </row>
     <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="19"/>
-      <c r="G265" s="19"/>
-      <c r="H265" s="19"/>
+      <c r="A265" s="21"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21"/>
     </row>
     <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="19"/>
-      <c r="G266" s="19"/>
-      <c r="H266" s="19"/>
+      <c r="A266" s="21"/>
+      <c r="B266" s="21"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21"/>
     </row>
     <row r="268" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="18" t="s">
+      <c r="A268" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="19"/>
-      <c r="G268" s="19"/>
-      <c r="H268" s="19"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="19"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="19"/>
-      <c r="H269" s="19"/>
+      <c r="A269" s="21"/>
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
+      <c r="H269" s="21"/>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="19"/>
-      <c r="E270" s="19"/>
-      <c r="F270" s="19"/>
-      <c r="G270" s="19"/>
-      <c r="H270" s="19"/>
+      <c r="A270" s="21"/>
+      <c r="B270" s="21"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21"/>
     </row>
     <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="19"/>
-      <c r="H271" s="19"/>
+      <c r="A271" s="21"/>
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
     </row>
     <row r="272" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
     </row>
     <row r="273" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="18" t="s">
+      <c r="A273" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C273" s="19"/>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="19"/>
-      <c r="G273" s="19"/>
-      <c r="H273" s="19"/>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="19"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="19"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="19"/>
-      <c r="H274" s="19"/>
+      <c r="A274" s="21"/>
+      <c r="B274" s="21"/>
+      <c r="C274" s="21"/>
+      <c r="D274" s="21"/>
+      <c r="E274" s="21"/>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21"/>
+      <c r="H274" s="21"/>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="19"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="19"/>
-      <c r="G275" s="19"/>
-      <c r="H275" s="19"/>
+      <c r="A275" s="21"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="21"/>
+      <c r="H275" s="21"/>
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="19"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="19"/>
-      <c r="E276" s="19"/>
-      <c r="F276" s="19"/>
-      <c r="G276" s="19"/>
-      <c r="H276" s="19"/>
+      <c r="A276" s="21"/>
+      <c r="B276" s="21"/>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="21"/>
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
@@ -5670,48 +5670,48 @@
       <c r="H280" s="1"/>
     </row>
     <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="20" t="s">
+      <c r="A281" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B281" s="20" t="s">
+      <c r="B281" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C281" s="19"/>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="19"/>
-      <c r="G281" s="19"/>
-      <c r="H281" s="19"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="19"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="19"/>
-      <c r="E282" s="19"/>
-      <c r="F282" s="19"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="19"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="21"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="19"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="19"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="19"/>
-      <c r="G283" s="19"/>
-      <c r="H283" s="19"/>
+      <c r="A283" s="21"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
+      <c r="H283" s="21"/>
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="19"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="19"/>
-      <c r="E284" s="19"/>
-      <c r="F284" s="19"/>
-      <c r="G284" s="19"/>
-      <c r="H284" s="19"/>
+      <c r="A284" s="21"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
     </row>
     <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
@@ -5724,140 +5724,140 @@
       <c r="H285" s="1"/>
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="18" t="s">
+      <c r="A286" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B286" s="18" t="s">
+      <c r="B286" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C286" s="19"/>
-      <c r="D286" s="19"/>
-      <c r="E286" s="19"/>
-      <c r="F286" s="19"/>
-      <c r="G286" s="19"/>
-      <c r="H286" s="19"/>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="21"/>
+      <c r="G286" s="21"/>
+      <c r="H286" s="21"/>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="19"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
-      <c r="D287" s="19"/>
-      <c r="E287" s="19"/>
-      <c r="F287" s="19"/>
-      <c r="G287" s="19"/>
-      <c r="H287" s="19"/>
+      <c r="A287" s="21"/>
+      <c r="B287" s="21"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="19"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
-      <c r="D288" s="19"/>
-      <c r="E288" s="19"/>
-      <c r="F288" s="19"/>
-      <c r="G288" s="19"/>
-      <c r="H288" s="19"/>
+      <c r="A288" s="21"/>
+      <c r="B288" s="21"/>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
+      <c r="H288" s="21"/>
     </row>
     <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="19"/>
-      <c r="E289" s="19"/>
-      <c r="F289" s="19"/>
-      <c r="G289" s="19"/>
-      <c r="H289" s="19"/>
+      <c r="A289" s="21"/>
+      <c r="B289" s="21"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
     </row>
     <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="18" t="s">
+      <c r="A291" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B291" s="18" t="s">
+      <c r="B291" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C291" s="19"/>
-      <c r="D291" s="19"/>
-      <c r="E291" s="19"/>
-      <c r="F291" s="19"/>
-      <c r="G291" s="19"/>
-      <c r="H291" s="19"/>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
     </row>
     <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="19"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="19"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="19"/>
+      <c r="A292" s="21"/>
+      <c r="B292" s="21"/>
+      <c r="C292" s="21"/>
+      <c r="D292" s="21"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
     </row>
     <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="19"/>
-      <c r="B293" s="19"/>
-      <c r="C293" s="19"/>
-      <c r="D293" s="19"/>
-      <c r="E293" s="19"/>
-      <c r="F293" s="19"/>
-      <c r="G293" s="19"/>
-      <c r="H293" s="19"/>
+      <c r="A293" s="21"/>
+      <c r="B293" s="21"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
     </row>
     <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="19"/>
-      <c r="B294" s="19"/>
-      <c r="C294" s="19"/>
-      <c r="D294" s="19"/>
-      <c r="E294" s="19"/>
-      <c r="F294" s="19"/>
-      <c r="G294" s="19"/>
-      <c r="H294" s="19"/>
+      <c r="A294" s="21"/>
+      <c r="B294" s="21"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
     </row>
     <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="18" t="s">
+      <c r="A296" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B296" s="18" t="s">
+      <c r="B296" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C296" s="19"/>
-      <c r="D296" s="19"/>
-      <c r="E296" s="19"/>
-      <c r="F296" s="19"/>
-      <c r="G296" s="19"/>
-      <c r="H296" s="19"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
     </row>
     <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="19"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
-      <c r="D297" s="19"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="19"/>
-      <c r="G297" s="19"/>
-      <c r="H297" s="19"/>
+      <c r="A297" s="21"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="21"/>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21"/>
     </row>
     <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="19"/>
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="19"/>
-      <c r="E298" s="19"/>
-      <c r="F298" s="19"/>
-      <c r="G298" s="19"/>
-      <c r="H298" s="19"/>
+      <c r="A298" s="21"/>
+      <c r="B298" s="21"/>
+      <c r="C298" s="21"/>
+      <c r="D298" s="21"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="21"/>
     </row>
     <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="19"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="19"/>
-      <c r="G299" s="19"/>
-      <c r="H299" s="19"/>
+      <c r="A299" s="21"/>
+      <c r="B299" s="21"/>
+      <c r="C299" s="21"/>
+      <c r="D299" s="21"/>
+      <c r="E299" s="21"/>
+      <c r="F299" s="21"/>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21"/>
     </row>
     <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
@@ -5888,48 +5888,48 @@
       <c r="H303" s="1"/>
     </row>
     <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="20" t="s">
+      <c r="A304" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B304" s="20" t="s">
+      <c r="B304" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="19"/>
-      <c r="G304" s="19"/>
-      <c r="H304" s="19"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="21"/>
+      <c r="F304" s="21"/>
+      <c r="G304" s="21"/>
+      <c r="H304" s="21"/>
     </row>
     <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="19"/>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
-      <c r="G305" s="19"/>
-      <c r="H305" s="19"/>
+      <c r="A305" s="21"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="21"/>
+      <c r="F305" s="21"/>
+      <c r="G305" s="21"/>
+      <c r="H305" s="21"/>
     </row>
     <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="19"/>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
-      <c r="G306" s="19"/>
-      <c r="H306" s="19"/>
+      <c r="A306" s="21"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="21"/>
+      <c r="F306" s="21"/>
+      <c r="G306" s="21"/>
+      <c r="H306" s="21"/>
     </row>
     <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="19"/>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="19"/>
-      <c r="G307" s="19"/>
-      <c r="H307" s="19"/>
+      <c r="A307" s="21"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="21"/>
+      <c r="G307" s="21"/>
+      <c r="H307" s="21"/>
     </row>
     <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
@@ -5942,140 +5942,140 @@
       <c r="H308" s="1"/>
     </row>
     <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="18" t="s">
+      <c r="A309" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C309" s="19"/>
-      <c r="D309" s="19"/>
-      <c r="E309" s="19"/>
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="19"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="21"/>
+      <c r="G309" s="21"/>
+      <c r="H309" s="21"/>
     </row>
     <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="19"/>
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="19"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="19"/>
-      <c r="G310" s="19"/>
-      <c r="H310" s="19"/>
+      <c r="A310" s="21"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="21"/>
+      <c r="G310" s="21"/>
+      <c r="H310" s="21"/>
     </row>
     <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="19"/>
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="19"/>
-      <c r="G311" s="19"/>
-      <c r="H311" s="19"/>
+      <c r="A311" s="21"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="21"/>
+      <c r="F311" s="21"/>
+      <c r="G311" s="21"/>
+      <c r="H311" s="21"/>
     </row>
     <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="19"/>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="19"/>
-      <c r="G312" s="19"/>
-      <c r="H312" s="19"/>
+      <c r="A312" s="21"/>
+      <c r="B312" s="21"/>
+      <c r="C312" s="21"/>
+      <c r="D312" s="21"/>
+      <c r="E312" s="21"/>
+      <c r="F312" s="21"/>
+      <c r="G312" s="21"/>
+      <c r="H312" s="21"/>
     </row>
     <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="18" t="s">
+      <c r="A314" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B314" s="18" t="s">
+      <c r="B314" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C314" s="19"/>
-      <c r="D314" s="19"/>
-      <c r="E314" s="19"/>
-      <c r="F314" s="19"/>
-      <c r="G314" s="19"/>
-      <c r="H314" s="19"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
+      <c r="E314" s="21"/>
+      <c r="F314" s="21"/>
+      <c r="G314" s="21"/>
+      <c r="H314" s="21"/>
     </row>
     <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="19"/>
-      <c r="B315" s="19"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="19"/>
-      <c r="E315" s="19"/>
-      <c r="F315" s="19"/>
-      <c r="G315" s="19"/>
-      <c r="H315" s="19"/>
+      <c r="A315" s="21"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="21"/>
+      <c r="E315" s="21"/>
+      <c r="F315" s="21"/>
+      <c r="G315" s="21"/>
+      <c r="H315" s="21"/>
     </row>
     <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="19"/>
-      <c r="B316" s="19"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="19"/>
-      <c r="E316" s="19"/>
-      <c r="F316" s="19"/>
-      <c r="G316" s="19"/>
-      <c r="H316" s="19"/>
+      <c r="A316" s="21"/>
+      <c r="B316" s="21"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="21"/>
+      <c r="G316" s="21"/>
+      <c r="H316" s="21"/>
     </row>
     <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="19"/>
-      <c r="B317" s="19"/>
-      <c r="C317" s="19"/>
-      <c r="D317" s="19"/>
-      <c r="E317" s="19"/>
-      <c r="F317" s="19"/>
-      <c r="G317" s="19"/>
-      <c r="H317" s="19"/>
+      <c r="A317" s="21"/>
+      <c r="B317" s="21"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="21"/>
+      <c r="F317" s="21"/>
+      <c r="G317" s="21"/>
+      <c r="H317" s="21"/>
     </row>
     <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
     </row>
     <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="18" t="s">
+      <c r="A319" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B319" s="18" t="s">
+      <c r="B319" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="19"/>
-      <c r="D319" s="19"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="19"/>
-      <c r="G319" s="19"/>
-      <c r="H319" s="19"/>
+      <c r="C319" s="21"/>
+      <c r="D319" s="21"/>
+      <c r="E319" s="21"/>
+      <c r="F319" s="21"/>
+      <c r="G319" s="21"/>
+      <c r="H319" s="21"/>
     </row>
     <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="19"/>
-      <c r="B320" s="19"/>
-      <c r="C320" s="19"/>
-      <c r="D320" s="19"/>
-      <c r="E320" s="19"/>
-      <c r="F320" s="19"/>
-      <c r="G320" s="19"/>
-      <c r="H320" s="19"/>
+      <c r="A320" s="21"/>
+      <c r="B320" s="21"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="21"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="21"/>
     </row>
     <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="19"/>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
-      <c r="D321" s="19"/>
-      <c r="E321" s="19"/>
-      <c r="F321" s="19"/>
-      <c r="G321" s="19"/>
-      <c r="H321" s="19"/>
+      <c r="A321" s="21"/>
+      <c r="B321" s="21"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
+      <c r="E321" s="21"/>
+      <c r="F321" s="21"/>
+      <c r="G321" s="21"/>
+      <c r="H321" s="21"/>
     </row>
     <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="19"/>
-      <c r="B322" s="19"/>
-      <c r="C322" s="19"/>
-      <c r="D322" s="19"/>
-      <c r="E322" s="19"/>
-      <c r="F322" s="19"/>
-      <c r="G322" s="19"/>
-      <c r="H322" s="19"/>
+      <c r="A322" s="21"/>
+      <c r="B322" s="21"/>
+      <c r="C322" s="21"/>
+      <c r="D322" s="21"/>
+      <c r="E322" s="21"/>
+      <c r="F322" s="21"/>
+      <c r="G322" s="21"/>
+      <c r="H322" s="21"/>
     </row>
     <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
@@ -6105,48 +6105,48 @@
       <c r="H326" s="1"/>
     </row>
     <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="20" t="s">
+      <c r="A327" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B327" s="20" t="s">
+      <c r="B327" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="19"/>
-      <c r="G327" s="19"/>
-      <c r="H327" s="19"/>
+      <c r="C327" s="21"/>
+      <c r="D327" s="21"/>
+      <c r="E327" s="21"/>
+      <c r="F327" s="21"/>
+      <c r="G327" s="21"/>
+      <c r="H327" s="21"/>
     </row>
     <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="19"/>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="19"/>
-      <c r="E328" s="19"/>
-      <c r="F328" s="19"/>
-      <c r="G328" s="19"/>
-      <c r="H328" s="19"/>
+      <c r="A328" s="21"/>
+      <c r="B328" s="21"/>
+      <c r="C328" s="21"/>
+      <c r="D328" s="21"/>
+      <c r="E328" s="21"/>
+      <c r="F328" s="21"/>
+      <c r="G328" s="21"/>
+      <c r="H328" s="21"/>
     </row>
     <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="19"/>
-      <c r="B329" s="19"/>
-      <c r="C329" s="19"/>
-      <c r="D329" s="19"/>
-      <c r="E329" s="19"/>
-      <c r="F329" s="19"/>
-      <c r="G329" s="19"/>
-      <c r="H329" s="19"/>
+      <c r="A329" s="21"/>
+      <c r="B329" s="21"/>
+      <c r="C329" s="21"/>
+      <c r="D329" s="21"/>
+      <c r="E329" s="21"/>
+      <c r="F329" s="21"/>
+      <c r="G329" s="21"/>
+      <c r="H329" s="21"/>
     </row>
     <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="19"/>
-      <c r="B330" s="19"/>
-      <c r="C330" s="19"/>
-      <c r="D330" s="19"/>
-      <c r="E330" s="19"/>
-      <c r="F330" s="19"/>
-      <c r="G330" s="19"/>
-      <c r="H330" s="19"/>
+      <c r="A330" s="21"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="21"/>
+      <c r="G330" s="21"/>
+      <c r="H330" s="21"/>
     </row>
     <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
@@ -6159,157 +6159,233 @@
       <c r="H331" s="1"/>
     </row>
     <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="18" t="s">
+      <c r="A332" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B332" s="18" t="s">
+      <c r="B332" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C332" s="19"/>
-      <c r="D332" s="19"/>
-      <c r="E332" s="19"/>
-      <c r="F332" s="19"/>
-      <c r="G332" s="19"/>
-      <c r="H332" s="19"/>
+      <c r="C332" s="21"/>
+      <c r="D332" s="21"/>
+      <c r="E332" s="21"/>
+      <c r="F332" s="21"/>
+      <c r="G332" s="21"/>
+      <c r="H332" s="21"/>
     </row>
     <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="19"/>
-      <c r="B333" s="19"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="19"/>
-      <c r="E333" s="19"/>
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
-      <c r="H333" s="19"/>
+      <c r="A333" s="21"/>
+      <c r="B333" s="21"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
+      <c r="E333" s="21"/>
+      <c r="F333" s="21"/>
+      <c r="G333" s="21"/>
+      <c r="H333" s="21"/>
     </row>
     <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="19"/>
-      <c r="B334" s="19"/>
-      <c r="C334" s="19"/>
-      <c r="D334" s="19"/>
-      <c r="E334" s="19"/>
-      <c r="F334" s="19"/>
-      <c r="G334" s="19"/>
-      <c r="H334" s="19"/>
+      <c r="A334" s="21"/>
+      <c r="B334" s="21"/>
+      <c r="C334" s="21"/>
+      <c r="D334" s="21"/>
+      <c r="E334" s="21"/>
+      <c r="F334" s="21"/>
+      <c r="G334" s="21"/>
+      <c r="H334" s="21"/>
     </row>
     <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="19"/>
-      <c r="B335" s="19"/>
-      <c r="C335" s="19"/>
-      <c r="D335" s="19"/>
-      <c r="E335" s="19"/>
-      <c r="F335" s="19"/>
-      <c r="G335" s="19"/>
-      <c r="H335" s="19"/>
+      <c r="A335" s="21"/>
+      <c r="B335" s="21"/>
+      <c r="C335" s="21"/>
+      <c r="D335" s="21"/>
+      <c r="E335" s="21"/>
+      <c r="F335" s="21"/>
+      <c r="G335" s="21"/>
+      <c r="H335" s="21"/>
     </row>
     <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B337" s="18" t="s">
+      <c r="B337" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C337" s="19"/>
-      <c r="D337" s="19"/>
-      <c r="E337" s="19"/>
-      <c r="F337" s="19"/>
-      <c r="G337" s="19"/>
-      <c r="H337" s="19"/>
+      <c r="C337" s="21"/>
+      <c r="D337" s="21"/>
+      <c r="E337" s="21"/>
+      <c r="F337" s="21"/>
+      <c r="G337" s="21"/>
+      <c r="H337" s="21"/>
     </row>
     <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="19"/>
-      <c r="B338" s="19"/>
-      <c r="C338" s="19"/>
-      <c r="D338" s="19"/>
-      <c r="E338" s="19"/>
-      <c r="F338" s="19"/>
-      <c r="G338" s="19"/>
-      <c r="H338" s="19"/>
+      <c r="A338" s="21"/>
+      <c r="B338" s="21"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="21"/>
+      <c r="E338" s="21"/>
+      <c r="F338" s="21"/>
+      <c r="G338" s="21"/>
+      <c r="H338" s="21"/>
     </row>
     <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="19"/>
-      <c r="B339" s="19"/>
-      <c r="C339" s="19"/>
-      <c r="D339" s="19"/>
-      <c r="E339" s="19"/>
-      <c r="F339" s="19"/>
-      <c r="G339" s="19"/>
-      <c r="H339" s="19"/>
+      <c r="A339" s="21"/>
+      <c r="B339" s="21"/>
+      <c r="C339" s="21"/>
+      <c r="D339" s="21"/>
+      <c r="E339" s="21"/>
+      <c r="F339" s="21"/>
+      <c r="G339" s="21"/>
+      <c r="H339" s="21"/>
     </row>
     <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="19"/>
-      <c r="B340" s="19"/>
-      <c r="C340" s="19"/>
-      <c r="D340" s="19"/>
-      <c r="E340" s="19"/>
-      <c r="F340" s="19"/>
-      <c r="G340" s="19"/>
-      <c r="H340" s="19"/>
+      <c r="A340" s="21"/>
+      <c r="B340" s="21"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="21"/>
+      <c r="E340" s="21"/>
+      <c r="F340" s="21"/>
+      <c r="G340" s="21"/>
+      <c r="H340" s="21"/>
     </row>
     <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
     </row>
     <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B342" s="18" t="s">
+      <c r="B342" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C342" s="19"/>
-      <c r="D342" s="19"/>
-      <c r="E342" s="19"/>
-      <c r="F342" s="19"/>
-      <c r="G342" s="19"/>
-      <c r="H342" s="19"/>
+      <c r="C342" s="21"/>
+      <c r="D342" s="21"/>
+      <c r="E342" s="21"/>
+      <c r="F342" s="21"/>
+      <c r="G342" s="21"/>
+      <c r="H342" s="21"/>
     </row>
     <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="19"/>
-      <c r="B343" s="19"/>
-      <c r="C343" s="19"/>
-      <c r="D343" s="19"/>
-      <c r="E343" s="19"/>
-      <c r="F343" s="19"/>
-      <c r="G343" s="19"/>
-      <c r="H343" s="19"/>
+      <c r="A343" s="21"/>
+      <c r="B343" s="21"/>
+      <c r="C343" s="21"/>
+      <c r="D343" s="21"/>
+      <c r="E343" s="21"/>
+      <c r="F343" s="21"/>
+      <c r="G343" s="21"/>
+      <c r="H343" s="21"/>
     </row>
     <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="19"/>
-      <c r="B344" s="19"/>
-      <c r="C344" s="19"/>
-      <c r="D344" s="19"/>
-      <c r="E344" s="19"/>
-      <c r="F344" s="19"/>
-      <c r="G344" s="19"/>
-      <c r="H344" s="19"/>
+      <c r="A344" s="21"/>
+      <c r="B344" s="21"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="21"/>
+      <c r="E344" s="21"/>
+      <c r="F344" s="21"/>
+      <c r="G344" s="21"/>
+      <c r="H344" s="21"/>
     </row>
     <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="19"/>
-      <c r="B345" s="19"/>
-      <c r="C345" s="19"/>
-      <c r="D345" s="19"/>
-      <c r="E345" s="19"/>
-      <c r="F345" s="19"/>
-      <c r="G345" s="19"/>
-      <c r="H345" s="19"/>
+      <c r="A345" s="21"/>
+      <c r="B345" s="21"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
+      <c r="G345" s="21"/>
+      <c r="H345" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:H161"/>
-    <mergeCell ref="B148:H151"/>
-    <mergeCell ref="B153:H156"/>
-    <mergeCell ref="B125:H128"/>
-    <mergeCell ref="B130:H133"/>
-    <mergeCell ref="B135:H138"/>
-    <mergeCell ref="B143:H146"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A332:A335"/>
+    <mergeCell ref="B332:H335"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="B337:H340"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:H345"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:H317"/>
+    <mergeCell ref="A319:A322"/>
+    <mergeCell ref="B319:H322"/>
+    <mergeCell ref="A327:A330"/>
+    <mergeCell ref="B327:H330"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="B296:H299"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:H307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:H312"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="B281:H284"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:H289"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="B291:H294"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:H271"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:H276"/>
+    <mergeCell ref="A240:A243"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="B245:H248"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:H253"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:H261"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:H215"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B217:H220"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:H225"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:H266"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="B227:H230"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="B235:H238"/>
+    <mergeCell ref="B240:H243"/>
+    <mergeCell ref="B102:H105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B107:H110"/>
+    <mergeCell ref="B112:H115"/>
+    <mergeCell ref="B120:H123"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B66:H69"/>
+    <mergeCell ref="B74:H77"/>
+    <mergeCell ref="B79:H82"/>
+    <mergeCell ref="B84:H87"/>
+    <mergeCell ref="B89:H92"/>
+    <mergeCell ref="B97:H100"/>
+    <mergeCell ref="B61:H64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B28:H31"/>
+    <mergeCell ref="B33:H36"/>
+    <mergeCell ref="B38:H41"/>
+    <mergeCell ref="B43:H46"/>
+    <mergeCell ref="B51:H54"/>
+    <mergeCell ref="B56:H59"/>
+    <mergeCell ref="B20:H23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:H8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:H13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:H18"/>
     <mergeCell ref="B199:H202"/>
     <mergeCell ref="B204:H207"/>
     <mergeCell ref="A166:A169"/>
@@ -6326,96 +6402,20 @@
     <mergeCell ref="B181:H184"/>
     <mergeCell ref="B166:H169"/>
     <mergeCell ref="B171:H174"/>
-    <mergeCell ref="B20:H23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:H8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:H13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:H18"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B28:H31"/>
-    <mergeCell ref="B33:H36"/>
-    <mergeCell ref="B38:H41"/>
-    <mergeCell ref="B43:H46"/>
-    <mergeCell ref="B51:H54"/>
-    <mergeCell ref="B56:H59"/>
-    <mergeCell ref="B66:H69"/>
-    <mergeCell ref="B74:H77"/>
-    <mergeCell ref="B79:H82"/>
-    <mergeCell ref="B84:H87"/>
-    <mergeCell ref="B89:H92"/>
-    <mergeCell ref="B97:H100"/>
-    <mergeCell ref="B61:H64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B102:H105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B107:H110"/>
-    <mergeCell ref="B112:H115"/>
-    <mergeCell ref="B120:H123"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:H215"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B217:H220"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:H225"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:H266"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="B227:H230"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="B235:H238"/>
-    <mergeCell ref="B240:H243"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:H271"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:H276"/>
-    <mergeCell ref="A240:A243"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="B245:H248"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:H253"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:H261"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="B296:H299"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:H307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:H312"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="B281:H284"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:H289"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="B291:H294"/>
-    <mergeCell ref="A332:A335"/>
-    <mergeCell ref="B332:H335"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="B337:H340"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:H345"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:H317"/>
-    <mergeCell ref="A319:A322"/>
-    <mergeCell ref="B319:H322"/>
-    <mergeCell ref="A327:A330"/>
-    <mergeCell ref="B327:H330"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:H161"/>
+    <mergeCell ref="B148:H151"/>
+    <mergeCell ref="B153:H156"/>
+    <mergeCell ref="B125:H128"/>
+    <mergeCell ref="B130:H133"/>
+    <mergeCell ref="B135:H138"/>
+    <mergeCell ref="B143:H146"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A135:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
